--- a/出席率変化の集計/fils/欠席時間集計表.xlsx
+++ b/出席率変化の集計/fils/欠席時間集計表.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -538,4 +539,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/出席率変化の集計/fils/欠席時間集計表.xlsx
+++ b/出席率変化の集計/fils/欠席時間集計表.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -40,16 +40,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>シュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出席日数</t>
-    <rPh sb="0" eb="2">
-      <t>シュッセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ニッスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -437,7 +427,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -472,7 +462,7 @@
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="E2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.4">
@@ -482,14 +472,11 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.4">
